--- a/Switch Research.xlsx
+++ b/Switch Research.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\GitHub\Infrastructure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ED4890B-FB87-45DC-AC3E-E614A411E873}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B95EA68-55B1-4BE1-AF78-449D064FA3B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{92FA17CA-EE28-45E4-8E0E-4A9611A3DDA4}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{92FA17CA-EE28-45E4-8E0E-4A9611A3DDA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="47">
   <si>
     <t>Switch</t>
   </si>
@@ -57,9 +57,6 @@
     <t>VLAN</t>
   </si>
   <si>
-    <t>Warranty</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
@@ -157,13 +154,31 @@
   </si>
   <si>
     <t>10 Gbit</t>
+  </si>
+  <si>
+    <t>Access Points</t>
+  </si>
+  <si>
+    <t>UniFi HD Access Point</t>
+  </si>
+  <si>
+    <t>Dual Band</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PoE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">802.3at (Transformer Pre included) </t>
+  </si>
+  <si>
+    <t>https://store.ui.com/collections/wireless/products/unifi-hd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,23 +187,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -196,17 +235,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -519,310 +582,392 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4115BD12-6A6C-493F-B40D-3161D8D25402}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="13" max="13" width="110.7109375" customWidth="1"/>
+    <col min="8" max="8" width="55.42578125" customWidth="1"/>
+    <col min="12" max="12" width="110.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1">
+        <v>48</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3829.2</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>48</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1">
+        <v>671.4</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2">
+        <v>48</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="2">
+        <v>4772.49</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2">
+        <v>48</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2064.2399999999998</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2">
+        <v>48</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="2">
+        <v>462</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2">
+        <v>48</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1478.4</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="5">
+        <v>48</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="5">
+        <v>4424.3999999999996</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="D9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="G9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="H9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2">
-        <v>48</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2">
-        <v>3829.2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>48</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3">
-        <v>671.4</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4">
-        <v>48</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4">
-        <v>4772.49</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>48</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5">
-        <v>2064.2399999999998</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6">
-        <v>48</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6">
-        <v>462</v>
-      </c>
-      <c r="I6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7">
-        <v>48</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7">
-        <v>1478.4</v>
-      </c>
-      <c r="I7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8">
-        <v>48</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8">
-        <v>4424.3999999999996</v>
-      </c>
-      <c r="I8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>39</v>
+      <c r="G10" s="1">
+        <v>282.44</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1" xr:uid="{D407F806-062F-4A1B-B323-FA074FB7EF20}"/>
-    <hyperlink ref="M3" r:id="rId2" xr:uid="{0387662D-017D-446A-A00A-0FD3D388E627}"/>
-    <hyperlink ref="M4" r:id="rId3" location="tab-techspecs" display="https://www.netgear.co.uk/business/products/switches/managed/M4300-48X.aspx - tab-techspecs" xr:uid="{C270A894-2857-413C-9D78-5EE2A68729D9}"/>
-    <hyperlink ref="M5" r:id="rId4" location="tab-techspecs" display="https://www.netgear.co.uk/business/products/switches/managed/M4300-52G-PoE-plus-550W-PSU.aspx - tab-techspecs" xr:uid="{CEF5B68A-2B89-433B-99E8-40614BB5F853}"/>
-    <hyperlink ref="M6" r:id="rId5" xr:uid="{B2B834D6-3FED-4F7B-B1D9-4183F6112E17}"/>
-    <hyperlink ref="M7" r:id="rId6" xr:uid="{EBD736E1-00AD-40AC-97E6-9846D954578C}"/>
-    <hyperlink ref="M8" r:id="rId7" xr:uid="{F4F11813-DC49-4099-AA61-35AF36856B7B}"/>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{D407F806-062F-4A1B-B323-FA074FB7EF20}"/>
+    <hyperlink ref="L3" r:id="rId2" xr:uid="{0387662D-017D-446A-A00A-0FD3D388E627}"/>
+    <hyperlink ref="L4" r:id="rId3" location="tab-techspecs" display="https://www.netgear.co.uk/business/products/switches/managed/M4300-48X.aspx - tab-techspecs" xr:uid="{C270A894-2857-413C-9D78-5EE2A68729D9}"/>
+    <hyperlink ref="L5" r:id="rId4" location="tab-techspecs" display="https://www.netgear.co.uk/business/products/switches/managed/M4300-52G-PoE-plus-550W-PSU.aspx - tab-techspecs" xr:uid="{CEF5B68A-2B89-433B-99E8-40614BB5F853}"/>
+    <hyperlink ref="L6" r:id="rId5" xr:uid="{B2B834D6-3FED-4F7B-B1D9-4183F6112E17}"/>
+    <hyperlink ref="L7" r:id="rId6" xr:uid="{EBD736E1-00AD-40AC-97E6-9846D954578C}"/>
+    <hyperlink ref="L8" r:id="rId7" xr:uid="{F4F11813-DC49-4099-AA61-35AF36856B7B}"/>
+    <hyperlink ref="H10" r:id="rId8" xr:uid="{2D16C490-9A2F-4F10-90B4-8A5876CDB561}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
 </worksheet>
 </file>
--- a/Switch Research.xlsx
+++ b/Switch Research.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\GitHub\Infrastructure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B95EA68-55B1-4BE1-AF78-449D064FA3B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D85DE9-5089-4D4A-BCF2-5F190DC794E8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{92FA17CA-EE28-45E4-8E0E-4A9611A3DDA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{92FA17CA-EE28-45E4-8E0E-4A9611A3DDA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="65">
   <si>
     <t>Switch</t>
   </si>
@@ -172,13 +172,67 @@
   </si>
   <si>
     <t>https://store.ui.com/collections/wireless/products/unifi-hd</t>
+  </si>
+  <si>
+    <t>Cable</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Sheilded?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Length </t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/kenable-External-SHIELDED-Outdoor-Ethernet/dp/B01HVTV448?th=1</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Cat 6a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethernet </t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/VCE-50-Pack-Connector-Ethernet-Plug-50u-50-Pack-End-Pass-Through/dp/B07MM3FQ3F/ref=sr_1_3?crid=ZDDU829GH208&amp;dchild=1&amp;keywords=rj45+connector&amp;qid=1588783714&amp;s=electronics&amp;sprefix=RJ4%2Celectronics%2C139&amp;sr=1-3</t>
+  </si>
+  <si>
+    <t>50 Pack RJ45 Connectors 10</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/CAT6A-Copper-Network-10GBASE-T-Ethernet-Lilac-Violet/dp/B00L46YWRG</t>
+  </si>
+  <si>
+    <t>50 M</t>
+  </si>
+  <si>
+    <t>100M</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/BeMatik-Ethernet-network-40GBase-T-category-Blue/dp/B07NYXB3YM</t>
+  </si>
+  <si>
+    <t>20M</t>
+  </si>
+  <si>
+    <t>Cat 8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +258,14 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -254,22 +316,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -582,19 +649,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4115BD12-6A6C-493F-B40D-3161D8D25402}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.28515625" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="31.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="86.7109375" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
     <col min="8" max="8" width="55.42578125" customWidth="1"/>
     <col min="12" max="12" width="110.7109375" customWidth="1"/>
@@ -930,30 +998,118 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7">
         <v>2</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="E10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="7">
         <v>282.44</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="7" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12">
+        <v>49.87</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13">
+        <v>94.99</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14">
+        <v>46.99</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -966,8 +1122,12 @@
     <hyperlink ref="L7" r:id="rId6" xr:uid="{EBD736E1-00AD-40AC-97E6-9846D954578C}"/>
     <hyperlink ref="L8" r:id="rId7" xr:uid="{F4F11813-DC49-4099-AA61-35AF36856B7B}"/>
     <hyperlink ref="H10" r:id="rId8" xr:uid="{2D16C490-9A2F-4F10-90B4-8A5876CDB561}"/>
+    <hyperlink ref="F12" r:id="rId9" xr:uid="{16E3D452-02B1-466E-853F-6DBA10579B91}"/>
+    <hyperlink ref="B24" r:id="rId10" xr:uid="{4DEEF93A-CD2A-48AC-B534-7088EAF18B47}"/>
+    <hyperlink ref="F13" r:id="rId11" xr:uid="{8C1718A0-FB85-4BE7-846D-4087F9C2D293}"/>
+    <hyperlink ref="F14" r:id="rId12" xr:uid="{F625FB3A-A5A4-45EB-946E-D0CC5FF0DAC3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
 </worksheet>
 </file>
--- a/Switch Research.xlsx
+++ b/Switch Research.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\GitHub\Infrastructure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D85DE9-5089-4D4A-BCF2-5F190DC794E8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3F7D61-B859-40D9-B6FB-65524B6213BB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{92FA17CA-EE28-45E4-8E0E-4A9611A3DDA4}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{92FA17CA-EE28-45E4-8E0E-4A9611A3DDA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="73">
   <si>
     <t>Switch</t>
   </si>
@@ -189,9 +189,6 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>https://www.amazon.co.uk/kenable-External-SHIELDED-Outdoor-Ethernet/dp/B01HVTV448?th=1</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -210,9 +207,6 @@
     <t>https://www.amazon.co.uk/CAT6A-Copper-Network-10GBASE-T-Ethernet-Lilac-Violet/dp/B00L46YWRG</t>
   </si>
   <si>
-    <t>50 M</t>
-  </si>
-  <si>
     <t>100M</t>
   </si>
   <si>
@@ -226,6 +220,36 @@
   </si>
   <si>
     <t>Cat 8</t>
+  </si>
+  <si>
+    <t>Router</t>
+  </si>
+  <si>
+    <t>https://www.juniper.net/uk/en/products-services/routing/ptx-series/ptx1000/</t>
+  </si>
+  <si>
+    <t>https://www.insight.com/en_US/shop/product/PTX10001-20C-AO/JUNIPER%20NETWORKS/PTX10001-20C-AO/JuniperNetworksPTXSeriesPTX10001-20C-AO-Router-40GigabitLAN,100GigabitEthernet-rack-mountable/</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/External-COPPER-Double-Network-Outdoor/dp/B01GK898I0/ref=psdc_430464031_t1_B01HVTV448</t>
+  </si>
+  <si>
+    <t>100 M</t>
+  </si>
+  <si>
+    <t>40GBit</t>
+  </si>
+  <si>
+    <t>Firewall</t>
+  </si>
+  <si>
+    <t>Juniper PTX1000</t>
+  </si>
+  <si>
+    <t>Juniper</t>
+  </si>
+  <si>
+    <t>""</t>
   </si>
 </sst>
 </file>
@@ -329,9 +353,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -651,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4115BD12-6A6C-493F-B40D-3161D8D25402}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,28 +1023,28 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="7">
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6">
         <v>2</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="E10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>282.44</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1040,76 +1064,136 @@
       <c r="E11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="1">
+        <v>63.98</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="1">
+        <v>94.99</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="8">
+        <v>46.99</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="1">
+        <v>71736.22</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12">
-        <v>49.87</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13">
-        <v>94.99</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14">
-        <v>46.99</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1122,12 +1206,14 @@
     <hyperlink ref="L7" r:id="rId6" xr:uid="{EBD736E1-00AD-40AC-97E6-9846D954578C}"/>
     <hyperlink ref="L8" r:id="rId7" xr:uid="{F4F11813-DC49-4099-AA61-35AF36856B7B}"/>
     <hyperlink ref="H10" r:id="rId8" xr:uid="{2D16C490-9A2F-4F10-90B4-8A5876CDB561}"/>
-    <hyperlink ref="F12" r:id="rId9" xr:uid="{16E3D452-02B1-466E-853F-6DBA10579B91}"/>
-    <hyperlink ref="B24" r:id="rId10" xr:uid="{4DEEF93A-CD2A-48AC-B534-7088EAF18B47}"/>
-    <hyperlink ref="F13" r:id="rId11" xr:uid="{8C1718A0-FB85-4BE7-846D-4087F9C2D293}"/>
-    <hyperlink ref="F14" r:id="rId12" xr:uid="{F625FB3A-A5A4-45EB-946E-D0CC5FF0DAC3}"/>
+    <hyperlink ref="B24" r:id="rId9" xr:uid="{4DEEF93A-CD2A-48AC-B534-7088EAF18B47}"/>
+    <hyperlink ref="F13" r:id="rId10" xr:uid="{8C1718A0-FB85-4BE7-846D-4087F9C2D293}"/>
+    <hyperlink ref="F14" r:id="rId11" xr:uid="{F625FB3A-A5A4-45EB-946E-D0CC5FF0DAC3}"/>
+    <hyperlink ref="F17" r:id="rId12" display="https://www.insight.com/en_US/shop/product/PTX10001-20C-AO/JUNIPER NETWORKS/PTX10001-20C-AO/JuniperNetworksPTXSeriesPTX10001-20C-AO-Router-40GigabitLAN,100GigabitEthernet-rack-mountable/" xr:uid="{C374365A-0F5A-41B9-8E10-590673B611EC}"/>
+    <hyperlink ref="F12" r:id="rId13" xr:uid="{E5E69B75-BA57-4108-88A3-3009894AC8F3}"/>
+    <hyperlink ref="F18" r:id="rId14" xr:uid="{405B02E6-681E-4FBF-8AB1-67E9C4894536}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
 </worksheet>
 </file>
--- a/Switch Research.xlsx
+++ b/Switch Research.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\GitHub\Infrastructure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3F7D61-B859-40D9-B6FB-65524B6213BB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB85EA2-A810-4DA3-81F4-9963135EA136}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{92FA17CA-EE28-45E4-8E0E-4A9611A3DDA4}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{92FA17CA-EE28-45E4-8E0E-4A9611A3DDA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="88">
   <si>
     <t>Switch</t>
   </si>
@@ -250,13 +251,61 @@
   </si>
   <si>
     <t>""</t>
+  </si>
+  <si>
+    <t>https://www.juniper.net/uk/en/products-services/routing/mx-series/mx204/</t>
+  </si>
+  <si>
+    <t>YES (4 Ports)</t>
+  </si>
+  <si>
+    <t>YES (30 Ports)</t>
+  </si>
+  <si>
+    <t>Juniper MX204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other </t>
+  </si>
+  <si>
+    <t>42U Cabinet</t>
+  </si>
+  <si>
+    <t>https://www.fs.com/uk/products/73579.html</t>
+  </si>
+  <si>
+    <t>Juniper Networks QSFPP-40GBASE-SR4 Compatible 40GBASE-SR4 QSFP+</t>
+  </si>
+  <si>
+    <t>https://www.fs.com/uk/products/36439.html</t>
+  </si>
+  <si>
+    <t>https://www.fs.com/uk/products/68023.html</t>
+  </si>
+  <si>
+    <t>12 Fibres MTP to MTP Female Plenum (OM3)</t>
+  </si>
+  <si>
+    <t>APC by Schneider Electric Back-UPS BX - BX1400UI</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/APC-Back-UPS-BX-BX1400UI-Uninterruptible/dp/B00T7BYPDG/ref=sxbs_sxwds-stvp?cv_ct_cx=Power+line+interactive+UPS&amp;dchild=1&amp;keywords=Power+line+interactive+UPS&amp;pd_rd_i=B00T7BYPDG&amp;pd_rd_r=51d8c2e2-418a-4bdf-b5c3-8334c12e7433&amp;pd_rd_w=IoSQf&amp;pd_rd_wg=cGMqR&amp;pf_rd_p=d9b87ec0-c7c2-464c-b8a6-2e7b5576127a&amp;pf_rd_r=SREYDEMTPP9VMM9CH5ZC&amp;psc=1&amp;qid=1589117193&amp;sr=1-1-718396de-69ac-46a0-9195-9669ab0086b2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12U Cabinet </t>
+  </si>
+  <si>
+    <t>https://www.fs.com/uk/products/75869.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,14 +331,6 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -340,13 +381,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
@@ -354,13 +394,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -673,22 +713,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4115BD12-6A6C-493F-B40D-3161D8D25402}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="86.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="55.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
     <col min="12" max="12" width="110.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -994,206 +1034,6 @@
       </c>
       <c r="L8" s="2" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="6">
-        <v>2</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="6">
-        <v>282.44</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="1">
-        <v>63.98</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="1">
-        <v>94.99</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="8">
-        <v>46.99</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="1">
-        <v>71736.22</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1205,15 +1045,313 @@
     <hyperlink ref="L6" r:id="rId5" xr:uid="{B2B834D6-3FED-4F7B-B1D9-4183F6112E17}"/>
     <hyperlink ref="L7" r:id="rId6" xr:uid="{EBD736E1-00AD-40AC-97E6-9846D954578C}"/>
     <hyperlink ref="L8" r:id="rId7" xr:uid="{F4F11813-DC49-4099-AA61-35AF36856B7B}"/>
-    <hyperlink ref="H10" r:id="rId8" xr:uid="{2D16C490-9A2F-4F10-90B4-8A5876CDB561}"/>
-    <hyperlink ref="B24" r:id="rId9" xr:uid="{4DEEF93A-CD2A-48AC-B534-7088EAF18B47}"/>
-    <hyperlink ref="F13" r:id="rId10" xr:uid="{8C1718A0-FB85-4BE7-846D-4087F9C2D293}"/>
-    <hyperlink ref="F14" r:id="rId11" xr:uid="{F625FB3A-A5A4-45EB-946E-D0CC5FF0DAC3}"/>
-    <hyperlink ref="F17" r:id="rId12" display="https://www.insight.com/en_US/shop/product/PTX10001-20C-AO/JUNIPER NETWORKS/PTX10001-20C-AO/JuniperNetworksPTXSeriesPTX10001-20C-AO-Router-40GigabitLAN,100GigabitEthernet-rack-mountable/" xr:uid="{C374365A-0F5A-41B9-8E10-590673B611EC}"/>
-    <hyperlink ref="F12" r:id="rId13" xr:uid="{E5E69B75-BA57-4108-88A3-3009894AC8F3}"/>
-    <hyperlink ref="F18" r:id="rId14" xr:uid="{405B02E6-681E-4FBF-8AB1-67E9C4894536}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C429A1FF-6E90-4270-AF3A-A1BDE2867C70}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="66.85546875" customWidth="1"/>
+    <col min="2" max="2" width="235.28515625" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="59" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="6">
+        <v>282.44</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="1">
+        <v>63.98</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="1">
+        <v>94.99</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="7">
+        <v>46.99</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="2">
+        <v>71736.22</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="8">
+        <v>19678.8</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B16" r:id="rId1" xr:uid="{9E835DCE-C0C0-475C-9C76-1D45A925DFD7}"/>
+    <hyperlink ref="F10" r:id="rId2" xr:uid="{102BC2D7-04E8-4D1B-B77B-5E3BD53B35AB}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{EC9E76E7-2DA4-4758-8FC7-70670FBDE671}"/>
+    <hyperlink ref="F9" r:id="rId4" display="https://www.insight.com/en_US/shop/product/PTX10001-20C-AO/JUNIPER NETWORKS/PTX10001-20C-AO/JuniperNetworksPTXSeriesPTX10001-20C-AO-Router-40GigabitLAN,100GigabitEthernet-rack-mountable/" xr:uid="{36B3C6F5-322B-4097-8B14-6616920CF798}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{BDBE589B-7D17-472D-A2AD-27ED0BB15966}"/>
+    <hyperlink ref="F5" r:id="rId6" xr:uid="{72B43D67-B46D-4B7A-AC59-D44D625617CE}"/>
+    <hyperlink ref="H2" r:id="rId7" xr:uid="{42A314FB-FE39-4FC7-93A4-377D502C383E}"/>
+    <hyperlink ref="F11" r:id="rId8" xr:uid="{08F3A68C-D57E-40A3-B23E-1D4FCD43C399}"/>
+    <hyperlink ref="B17" r:id="rId9" xr:uid="{A3696D6E-3EB0-4125-97FB-1580DCC66D8F}"/>
+    <hyperlink ref="B19" r:id="rId10" xr:uid="{E6E88495-BDEA-469F-9745-B06F14304577}"/>
+    <hyperlink ref="B15" r:id="rId11" xr:uid="{EE424C7F-0D8F-4570-BCB0-D201A27723B4}"/>
+    <hyperlink ref="B20" r:id="rId12" display="https://www.amazon.co.uk/APC-Back-UPS-BX-BX1400UI-Uninterruptible/dp/B00T7BYPDG/ref=sxbs_sxwds-stvp?cv_ct_cx=Power+line+interactive+UPS&amp;dchild=1&amp;keywords=Power+line+interactive+UPS&amp;pd_rd_i=B00T7BYPDG&amp;pd_rd_r=51d8c2e2-418a-4bdf-b5c3-8334c12e7433&amp;pd_rd_w=IoSQf&amp;pd_rd_wg=cGMqR&amp;pf_rd_p=d9b87ec0-c7c2-464c-b8a6-2e7b5576127a&amp;pf_rd_r=SREYDEMTPP9VMM9CH5ZC&amp;psc=1&amp;qid=1589117193&amp;sr=1-1-718396de-69ac-46a0-9195-9669ab0086b2" xr:uid="{D71B53BF-D41F-42FC-BC07-0B1C09719E7A}"/>
+    <hyperlink ref="B18" r:id="rId13" xr:uid="{5805C3DE-3C41-4442-A633-28279B9F8E56}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId14"/>
 </worksheet>
 </file>